--- a/Documents/05项目监督/01项目周报/项目级-项目周报-Version_1.0.0-alpha-20200829.xlsx
+++ b/Documents/05项目监督/01项目周报/项目级-项目周报-Version_1.0.0-alpha-20200829.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
   <si>
     <t>第一周项目周报</t>
   </si>
@@ -136,16 +136,10 @@
     <t>完成</t>
   </si>
   <si>
-    <t>爬虫编写</t>
-  </si>
-  <si>
-    <t>数据搜寻</t>
-  </si>
-  <si>
-    <t>数据不全面</t>
-  </si>
-  <si>
-    <t>后续跟进</t>
+    <t>系统设计</t>
+  </si>
+  <si>
+    <t>数据库设计</t>
   </si>
   <si>
     <t>前端框架</t>
@@ -211,6 +205,18 @@
     </r>
   </si>
   <si>
+    <t>爬虫编写</t>
+  </si>
+  <si>
+    <t>数据搜寻</t>
+  </si>
+  <si>
+    <t>数据不全面</t>
+  </si>
+  <si>
+    <t>后续跟进</t>
+  </si>
+  <si>
     <t>建立数据库</t>
   </si>
   <si>
@@ -287,11 +293,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,36 +323,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -360,10 +336,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,69 +353,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,6 +383,90 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -503,187 +502,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -889,6 +888,54 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -908,21 +955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -938,203 +970,170 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1585,8 +1584,8 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1843,7 +1842,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" s="43" customFormat="1" ht="27.6" customHeight="1" spans="1:8">
+    <row r="18" s="43" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="26">
         <v>3</v>
       </c>
@@ -1855,22 +1854,20 @@
         <v>27</v>
       </c>
       <c r="E18" s="30">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="31" t="s">
-        <v>32</v>
-      </c>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" s="43" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="26">
         <v>4</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29" t="s">
@@ -1890,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29" t="s">
@@ -1907,7 +1904,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
@@ -1919,7 +1916,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="34" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -2003,17 +2000,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:H5"/>
+      <selection activeCell="L12" sqref="L12:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2084,7 +2081,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2149,7 +2146,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
@@ -2166,8 +2163,26 @@
         <v>16</v>
       </c>
       <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="L12" s="26">
+        <v>2</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" s="28"/>
+      <c r="S12" s="31"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
@@ -2184,8 +2199,28 @@
         <v>16</v>
       </c>
       <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="L13" s="26">
+        <v>3</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="28"/>
+      <c r="O13" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" s="30">
+        <v>0.75</v>
+      </c>
+      <c r="Q13" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="28"/>
+      <c r="S13" s="31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -2196,8 +2231,26 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="L14" s="26">
+        <v>4</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="28"/>
+      <c r="O14" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="28"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="24" t="s">
         <v>20</v>
       </c>
@@ -2218,13 +2271,31 @@
       <c r="H15" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="L15" s="26">
+        <v>5</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="28"/>
+      <c r="O15" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="P15" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="R15" s="28"/>
+      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="26">
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29" t="s">
@@ -2244,7 +2315,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="32" t="s">
@@ -2264,7 +2335,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="32" t="s">
@@ -2281,7 +2352,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2293,7 +2364,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -2334,7 +2405,7 @@
       <c r="H23" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="36">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:C5"/>
@@ -2345,13 +2416,21 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q12:R12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="G13:H13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="Q13:R13"/>
     <mergeCell ref="A14:H14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="F15:G15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="B17:C17"/>
@@ -2374,7 +2453,7 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -2382,7 +2461,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2453,7 +2532,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -2498,7 +2577,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2593,7 +2672,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29" t="s">
@@ -2613,11 +2692,11 @@
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="30">
         <v>1</v>
@@ -2633,11 +2712,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E18" s="30">
         <v>1</v>
@@ -2650,7 +2729,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="22"/>
       <c r="C19" s="22"/>
@@ -2702,7 +2781,7 @@
       <c r="G23" s="41"/>
       <c r="H23" s="42"/>
       <c r="J23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/05项目监督/01项目周报/项目级-项目周报-Version_1.0.0-alpha-20200829.xlsx
+++ b/Documents/05项目监督/01项目周报/项目级-项目周报-Version_1.0.0-alpha-20200829.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="第一周" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>第一周项目周报</t>
   </si>
@@ -51,6 +51,20 @@
     <t>项目进度</t>
   </si>
   <si>
+    <r>
+      <t>配置环境-&gt;确定需求-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前后端框架</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -60,19 +74,11 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>配置环境-&gt;确定需求-&gt;前后端框架-&gt;获取数据-&gt;</t>
+      <t>-&gt;获取数据-&gt;</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>建立数据库</t>
     </r>
     <r>
@@ -151,23 +157,29 @@
     <t>其他说明</t>
   </si>
   <si>
-    <t>本周确定了项目需求，并获取了大部分数据，前后端框架也已完成建设。下一周将根据需求建立数据库，完成算子的实现</t>
+    <t>本周确定了项目需求，完成了项目设计，前后端框架也已完成建设。下一周将进行数据爬取、spark分析、完成算子的实现、数据库建立。</t>
   </si>
   <si>
     <t>第二周项目周报</t>
   </si>
   <si>
-    <t>建立数据库、算子实现</t>
+    <t>数据获取、算子实现、建立数据库</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>配置环境-&gt;确定需求-&gt;前后端框架-&gt;获取数据-&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>建立数据库</t>
     </r>
     <r>
@@ -179,7 +191,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt;算子实现</t>
+      <t>-&gt;</t>
     </r>
     <r>
       <rPr>
@@ -190,7 +202,17 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-&gt;</t>
+      <t>算子实现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;前</t>
     </r>
     <r>
       <rPr>
@@ -201,32 +223,35 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>前后端连接-&gt;优化前端-&gt;项目完成</t>
+      <t>后端连接-&gt;优化前端-&gt;项目完成</t>
     </r>
   </si>
   <si>
     <t>爬虫编写</t>
   </si>
   <si>
-    <t>数据搜寻</t>
-  </si>
-  <si>
-    <t>数据不全面</t>
-  </si>
-  <si>
-    <t>后续跟进</t>
-  </si>
-  <si>
-    <t>建立数据库</t>
-  </si>
-  <si>
-    <t>算子实现</t>
+    <t>李明霞、康艳晴</t>
+  </si>
+  <si>
+    <t>数据获取</t>
+  </si>
+  <si>
+    <t>spark算子编写</t>
+  </si>
+  <si>
+    <t>阳玉洁</t>
+  </si>
+  <si>
+    <t>Linux环境搭建</t>
   </si>
   <si>
     <t>数据补全及清洗</t>
   </si>
   <si>
-    <t>本周完成了spark算子的实现，下周将进行前后端的连接，前端的优化</t>
+    <t>数据库建立</t>
+  </si>
+  <si>
+    <t>本周完成了500万条数据的获取、spark算子的实现、mysql数据库建立完毕，下周将进行前端编写及前后端的连接。</t>
   </si>
   <si>
     <t>第三周项目周报</t>
@@ -269,16 +294,28 @@
     </r>
   </si>
   <si>
+    <t>前端编写</t>
+  </si>
+  <si>
+    <t>张婷睿、全芷玥</t>
+  </si>
+  <si>
     <t>前后端连接</t>
   </si>
   <si>
     <t>前端优化</t>
   </si>
   <si>
-    <t>尉郭晨</t>
-  </si>
-  <si>
-    <t>文档编写</t>
+    <t>全芷玥、张婷睿</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>全体人员</t>
+  </si>
+  <si>
+    <t>汇报整理</t>
   </si>
   <si>
     <t xml:space="preserve">全体成员  </t>
@@ -292,10 +329,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -322,10 +359,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,8 +373,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -345,7 +442,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,6 +472,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -367,54 +487,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,46 +503,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -502,25 +539,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,151 +713,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,23 +932,47 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,35 +994,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,31 +1026,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1007,137 +1044,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,9 +1262,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1256,6 +1290,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1584,8 +1624,8 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
@@ -1711,7 +1751,7 @@
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="18"/>
@@ -1737,10 +1777,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="44"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1842,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" s="43" customFormat="1" customHeight="1" spans="1:8">
+    <row r="16" s="44" customFormat="1" customHeight="1" spans="1:8">
       <c r="A16" s="26">
         <v>1</v>
       </c>
@@ -1822,7 +1862,7 @@
       <c r="G16" s="28"/>
       <c r="H16" s="31"/>
     </row>
-    <row r="17" s="43" customFormat="1" customHeight="1" spans="1:8">
+    <row r="17" s="44" customFormat="1" customHeight="1" spans="1:8">
       <c r="A17" s="26">
         <v>2</v>
       </c>
@@ -1842,7 +1882,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="31"/>
     </row>
-    <row r="18" s="43" customFormat="1" ht="17" customHeight="1" spans="1:8">
+    <row r="18" s="44" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="26">
         <v>3</v>
       </c>
@@ -1862,7 +1902,7 @@
       <c r="G18" s="28"/>
       <c r="H18" s="31"/>
     </row>
-    <row r="19" s="43" customFormat="1" customHeight="1" spans="1:8">
+    <row r="19" s="44" customFormat="1" customHeight="1" spans="1:8">
       <c r="A19" s="26">
         <v>4</v>
       </c>
@@ -1882,7 +1922,7 @@
       <c r="G19" s="28"/>
       <c r="H19" s="31"/>
     </row>
-    <row r="20" s="43" customFormat="1" customHeight="1" spans="1:8">
+    <row r="20" s="44" customFormat="1" customHeight="1" spans="1:8">
       <c r="A20" s="26">
         <v>5</v>
       </c>
@@ -1915,46 +1955,46 @@
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="39"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="37"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="39"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" ht="14.55" spans="1:8">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2000,13 +2040,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:S15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="7"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -2070,7 +2110,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="11">
-        <v>44065</v>
+        <v>44066</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -2104,7 +2144,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="17" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
@@ -2125,8 +2165,8 @@
       <c r="H9" s="19"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
-        <v>37</v>
+      <c r="A10" s="42" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -2146,7 +2186,7 @@
       <c r="G11" s="18"/>
       <c r="H11" s="19"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:8">
       <c r="A12" s="20" t="s">
         <v>13</v>
       </c>
@@ -2163,26 +2203,8 @@
         <v>16</v>
       </c>
       <c r="H12" s="9"/>
-      <c r="L12" s="26">
-        <v>2</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P12" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="31"/>
-    </row>
-    <row r="13" spans="1:19">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="20" t="s">
         <v>17</v>
       </c>
@@ -2199,28 +2221,8 @@
         <v>16</v>
       </c>
       <c r="H13" s="9"/>
-      <c r="L13" s="26">
-        <v>3</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P13" s="30">
-        <v>0.75</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
@@ -2231,26 +2233,8 @@
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="23"/>
-      <c r="L14" s="26">
-        <v>4</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="31"/>
-    </row>
-    <row r="15" spans="1:19">
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="24" t="s">
         <v>20</v>
       </c>
@@ -2271,35 +2255,17 @@
       <c r="H15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="26">
-        <v>5</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="P15" s="30">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="26">
         <v>1</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="E16" s="30">
         <v>1</v>
@@ -2315,10 +2281,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="28"/>
-      <c r="D17" s="32" t="s">
+      <c r="D17" s="43" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="30">
@@ -2335,11 +2301,11 @@
         <v>3</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="28"/>
-      <c r="D18" s="32" t="s">
-        <v>27</v>
+      <c r="D18" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="E18" s="30">
         <v>1</v>
@@ -2351,441 +2317,121 @@
       <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="26">
+        <v>4</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26">
+        <v>5</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="26">
+        <v>6</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="30">
+        <v>1</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="31"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" ht="14.55" spans="1:8">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="36"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26" ht="14.55" spans="1:8">
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H23"/>
-    <mergeCell ref="A8:H9"/>
-    <mergeCell ref="A10:H11"/>
-    <mergeCell ref="A1:H2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11">
-        <v>44072</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="26">
-        <v>1</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="30">
-        <v>1</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="31"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="26">
-        <v>2</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="31"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="26">
-        <v>3</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="30">
-        <v>1</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="31"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="37"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="39"/>
-    </row>
-    <row r="23" ht="14.55" spans="1:10">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="42"/>
-      <c r="J23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="34">
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:C5"/>
@@ -2809,11 +2455,433 @@
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A20:H23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="A22:H22"/>
     <mergeCell ref="A8:H9"/>
     <mergeCell ref="A10:H11"/>
     <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A23:H26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="11">
+        <v>44072</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="25"/>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="25"/>
+      <c r="H15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="26">
+        <v>1</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="30">
+        <v>1</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="26">
+        <v>2</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="30">
+        <v>1</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="26">
+        <v>3</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="30">
+        <v>1</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="31"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="26">
+        <v>4</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="26">
+        <v>5</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="28"/>
+      <c r="H20" s="31"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="23"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="36"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="38"/>
+    </row>
+    <row r="25" ht="14.55" spans="1:10">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="32">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="A8:H9"/>
+    <mergeCell ref="A10:H11"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A22:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
